--- a/docs/APInf Testcase.xlsx
+++ b/docs/APInf Testcase.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="401">
   <si>
     <t xml:space="preserve">APInf Testcases</t>
   </si>
@@ -13552,27 +13552,8 @@
     <t xml:space="preserve">Tenant</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tenant manger configuration
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IDM (keyrock) is setup
+    <t xml:space="preserve">Tenant manger configuration
+-IDM (keyrock) is setup
 - the is an application that can be configured to use for login with fiware
 There is an application controlling access to tenant manager
 There is tenant manager microservice (https://github.com/opplafy/tenant-manager) running
@@ -13580,19 +13561,265 @@
 2) Make sure you have admin rights
 3) go to Settings
 4) enter tenant manager url (for example: https://umbrella.tampere.apinf.cloud/tenant-manager/)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Admin user can enter tenant manager URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Add tenant</t>
+    <t xml:space="preserve">Add tenant
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Login with Fiware  account
+2. Click tenant 
+3A.Add new one, filling name and description fields 
+3B.(Optional) Add new user from the list under the “Add a new user for tenant” section and then click the button “Add user for tenant” and gives roles if you want 
+4.Click “Yes, add tenant”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user can add tenant </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1,Login with Fiware account
+2.Click Tenant
+3.Add new one without filling either the name or the description 
+4.Click “Yes, add tennant”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user cannot add user and the platform should show up one of these messages:
+-”Tenant must have name!”
+-”Tenant must have a description!”</t>
   </si>
   <si>
     <t xml:space="preserve">Delete tenant</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Click on “Remove Tenant”
+2.Click on “No, Cancel” </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user can cancel the deletion of the tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-Click on “Remove Tenant”
+-Click on “Yes, Remove Tenant”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user can delete a tenant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modify tenant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Login with Fiware
+2.Click “Tenant”
+3.Click “Edit tenant” or create a new one If there isn’t a tenant
+4A.Modify either the tenant name or the tenant descripiton
+4B.(OPTIONAL) Add a new user for tenant or remove it
+5.Click on “Yes, modify tenant”
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user can modify the tenant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Login with Fiware
+2-Click “Tenant”
+3.Click “Modify tenant” or create a new one If there isn’t a Tenant
+4.Don’t modify either the tenant name or the 
+5.Tenant description
+6.Don’t modify the users
+7.Click on “Yes, modify tenant”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiware logged user cannot modify user and the platform should show up one of these error messages:
+-”No changes in tenant”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification for the notify user in 
+the “Users on this tennant”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Colibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Colibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Login with Fiware account
+3.Click “Tennant”.
+4.Either create a new tennant or modify one of the existing ones that you’ve created.
+5.Add a user that you know the email from and click the checkbox  “Notify User”. 
+6.Click “Yes, modify tenant” / “Yes, add tennant” 
+7.Go to the email account related to that user and see if you have received the email or ask that person if he has received the email.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The user must receive an email saying that he has been added to that tennant and saying what is his role.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Colibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Colibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Login with Fiware account 
+2.Click “Tennant”. 
+3.Modify  one of the existing tennants that you’ve created. 
+4.Click the trash icon in a user that you know the email from and has the checkbox  “Notify User” checked.
+5.Click “Yes, modify tenant” 
+6.Go to the email account related to that user and see if you have received the email or ask that person if he has received the email.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The user must receive an email saying that he has been removed from that tennant.</t>
   </si>
 </sst>
 </file>
@@ -13602,7 +13829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -13743,14 +13970,48 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Colibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Colibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Colibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Colibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13766,7 +14027,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFADD58A"/>
       </patternFill>
     </fill>
     <fill>
@@ -13784,7 +14045,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC00000"/>
+        <bgColor rgb="FFED1C24"/>
       </patternFill>
     </fill>
     <fill>
@@ -13808,7 +14069,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -13931,7 +14210,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -14224,8 +14503,116 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -14267,7 +14654,7 @@
       <rgbColor rgb="FFBDD7EE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -14277,7 +14664,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFD9D9D9"/>
@@ -14293,7 +14680,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -14313,9 +14700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>970200</xdr:colOff>
+      <xdr:colOff>969120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14329,7 +14716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4515840" y="16514280"/>
-          <a:ext cx="161280" cy="196200"/>
+          <a:ext cx="160200" cy="195120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14350,9 +14737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>778680</xdr:colOff>
+      <xdr:colOff>777600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14366,7 +14753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="617400" y="22336200"/>
-          <a:ext cx="161280" cy="196920"/>
+          <a:ext cx="160200" cy="195840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14387,9 +14774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>976680</xdr:colOff>
+      <xdr:colOff>975600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3066120</xdr:rowOff>
+      <xdr:rowOff>3065040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14403,7 +14790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4522320" y="18616320"/>
-          <a:ext cx="161280" cy="3098160"/>
+          <a:ext cx="160200" cy="3097080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14424,9 +14811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1055520</xdr:colOff>
+      <xdr:colOff>1054440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14440,7 +14827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="893880" y="23465880"/>
-          <a:ext cx="161640" cy="288000"/>
+          <a:ext cx="160560" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14461,9 +14848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14477,7 +14864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4772880" y="16723800"/>
-          <a:ext cx="166320" cy="2003040"/>
+          <a:ext cx="165240" cy="2001960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14498,9 +14885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>396000</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14514,7 +14901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5159160" y="18619560"/>
-          <a:ext cx="161640" cy="3187080"/>
+          <a:ext cx="160560" cy="3186000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14535,9 +14922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14551,7 +14938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="960840" y="23551200"/>
-          <a:ext cx="228240" cy="234000"/>
+          <a:ext cx="227160" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14572,9 +14959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14588,7 +14975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3744360" y="22017240"/>
-          <a:ext cx="228240" cy="287640"/>
+          <a:ext cx="227160" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14609,9 +14996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14625,7 +15012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="761040" y="24498000"/>
-          <a:ext cx="228240" cy="235080"/>
+          <a:ext cx="227160" cy="234000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14646,9 +15033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>950040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14662,7 +15049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="722880" y="24611760"/>
-          <a:ext cx="228240" cy="234000"/>
+          <a:ext cx="227160" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14688,9 +15075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1055520</xdr:colOff>
+      <xdr:colOff>1054440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14704,7 +15091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="893880" y="8046720"/>
-          <a:ext cx="161640" cy="289080"/>
+          <a:ext cx="160560" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14725,9 +15112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14741,7 +15128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4772880" y="5933520"/>
-          <a:ext cx="166320" cy="288000"/>
+          <a:ext cx="165240" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14762,9 +15149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>396000</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14778,7 +15165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5159160" y="6111360"/>
-          <a:ext cx="161640" cy="288360"/>
+          <a:ext cx="160560" cy="287280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14799,9 +15186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14815,7 +15202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="960840" y="8132040"/>
-          <a:ext cx="228240" cy="234720"/>
+          <a:ext cx="227160" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14836,9 +15223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14852,7 +15239,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3744360" y="6598080"/>
-          <a:ext cx="228240" cy="288000"/>
+          <a:ext cx="227160" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14873,9 +15260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14889,7 +15276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="761040" y="9078840"/>
-          <a:ext cx="228240" cy="235080"/>
+          <a:ext cx="227160" cy="234000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14910,9 +15297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>950040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14926,7 +15313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="722880" y="9192600"/>
-          <a:ext cx="228240" cy="234720"/>
+          <a:ext cx="227160" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14952,9 +15339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1055520</xdr:colOff>
+      <xdr:colOff>1054440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14968,7 +15355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="893880" y="8740800"/>
-          <a:ext cx="161640" cy="288720"/>
+          <a:ext cx="160560" cy="287640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14989,9 +15376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15005,7 +15392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4772880" y="4910400"/>
-          <a:ext cx="166320" cy="1998360"/>
+          <a:ext cx="165240" cy="1997280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15026,9 +15413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>396000</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15042,7 +15429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5159160" y="6805080"/>
-          <a:ext cx="161640" cy="288360"/>
+          <a:ext cx="160560" cy="287280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15063,9 +15450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15079,7 +15466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="960840" y="8826120"/>
-          <a:ext cx="228240" cy="234720"/>
+          <a:ext cx="227160" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15100,9 +15487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15116,7 +15503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3744360" y="7291800"/>
-          <a:ext cx="228240" cy="288000"/>
+          <a:ext cx="227160" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15137,9 +15524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15153,7 +15540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="761040" y="9772920"/>
-          <a:ext cx="228240" cy="235080"/>
+          <a:ext cx="227160" cy="234000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15174,9 +15561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>950040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15190,7 +15577,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="722880" y="9886680"/>
-          <a:ext cx="228240" cy="234000"/>
+          <a:ext cx="227160" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15216,9 +15603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1055520</xdr:colOff>
+      <xdr:colOff>1054440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15232,7 +15619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="893880" y="19189800"/>
-          <a:ext cx="161640" cy="288360"/>
+          <a:ext cx="160560" cy="287280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15253,9 +15640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15269,7 +15656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4772880" y="17075880"/>
-          <a:ext cx="166320" cy="288720"/>
+          <a:ext cx="165240" cy="287640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15290,9 +15677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>988200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15306,7 +15693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="761040" y="20577960"/>
-          <a:ext cx="228240" cy="235080"/>
+          <a:ext cx="227160" cy="234000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15327,9 +15714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>950040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15343,7 +15730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="722880" y="20692440"/>
-          <a:ext cx="228240" cy="234720"/>
+          <a:ext cx="227160" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15611,10 +15998,10 @@
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -15939,11 +16326,11 @@
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16556,11 +16943,11 @@
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19170,7 +19557,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
@@ -19333,23 +19720,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="22.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="18"/>
@@ -19361,8 +19749,8 @@
       <c r="K1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13"/>
@@ -19374,8 +19762,8 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="23" t="s">
@@ -19395,11 +19783,11 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="79" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="50"/>
@@ -19426,11 +19814,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="13"/>
@@ -19441,11 +19829,11 @@
       <c r="J5" s="16"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="75" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="3"/>
@@ -19458,11 +19846,11 @@
       <c r="J6" s="16"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
@@ -19473,14 +19861,140 @@
       <c r="J7" s="16"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+    </row>
+    <row r="9" customFormat="false" ht="163.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73" t="s">
+      <c r="B9" s="84" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+    </row>
+    <row r="11" customFormat="false" ht="123.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" s="89" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="84"/>
+    </row>
+    <row r="13" s="89" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+    </row>
+    <row r="14" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+    </row>
+    <row r="16" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" s="89" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+    </row>
+    <row r="19" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" s="89" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+    </row>
+    <row r="21" customFormat="false" ht="129" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="99" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+    </row>
+    <row r="24" s="100" customFormat="true" ht="252.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" s="100" customFormat="true" ht="220.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -19489,14 +20003,14 @@
     <mergeCell ref="K3:P3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://umbrella.tampere.apinf.cloud/tenant-manager/"/>
+    <hyperlink ref="A6" r:id="rId1" display="Tenant manger configuration&#10;-IDM (keyrock) is setup&#10;- the is an application that can be configured to use for login with fiware&#10;There is an application controlling access to tenant manager&#10;There is tenant manager microservice (https://github.com/opplafy/tenant-manager) running&#10;1) sign in with fiware&#10;2) Make sure you have admin rights&#10;3) go to Settings&#10;4) enter tenant manager url (for example: https://umbrella.tampere.apinf.cloud/tenant-manager/)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Sivu &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sivu &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -21015,11 +21529,11 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21317,10 +21831,10 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
       <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
